--- a/系统/法院系统/吉林/2017-11出差费用/出差费用.xlsx
+++ b/系统/法院系统/吉林/2017-11出差费用/出差费用.xlsx
@@ -16,16 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>吉林落地大巴费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加班烧烤+其它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>买酒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -35,6 +31,26 @@
   </si>
   <si>
     <t>滴滴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市内交通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班餐费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -66,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -74,12 +90,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -374,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -386,111 +421,140 @@
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>100</v>
       </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
         <v>27</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1253858</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1">
         <v>33</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>18131551</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1">
         <v>27</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>20475806</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1">
         <v>30</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>4411043</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1">
         <v>23</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>21535589</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1">
         <v>38</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>28598669</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1">
         <v>18</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>27177513</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1">
         <v>36</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>2858087</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>218</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="B12" s="1">
+        <v>720</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="B13" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>237.35</v>
       </c>
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
